--- a/StructureDefinition-profile-Basic.xlsx
+++ b/StructureDefinition-profile-Basic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="202">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6239461-06:00</t>
+    <t>2026-02-09T22:05:42.9879425-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,11 +593,21 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Basic.created.extension:created</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Basic.created|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Basic.created from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `dateTime`:0..1 -&gt; basic: `date`:0..1).
+Element `Basic.created` is mapped to FHIR R4 element `Basic.created`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -951,7 +961,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2629,7 +2639,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -2722,12 +2732,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2748,15 +2760,17 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -2814,7 +2828,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>136</v>
@@ -2828,10 +2842,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2857,10 +2871,10 @@
         <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2911,7 +2925,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2934,10 +2948,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2960,17 +2974,17 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3019,7 +3033,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3034,10 +3048,10 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Basic.xlsx
+++ b/StructureDefinition-profile-Basic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9879425-06:00</t>
+    <t>2026-02-17T14:42:26.7364182-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,7 +607,7 @@
   </si>
   <si>
     <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `dateTime`:0..1 -&gt; basic: `date`:0..1).
-Element `Basic.created` is mapped to FHIR R4 element `Basic.created`.</t>
+Element `Basic.created` has is mapped to FHIR R4 element `Basic.created`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-profile-Basic.xlsx
+++ b/StructureDefinition-profile-Basic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7364182-06:00</t>
+    <t>2026-02-20T11:59:20.73347-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -599,7 +599,7 @@
     <t>created</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Basic.created|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Basic.created}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Basic.xlsx
+++ b/StructureDefinition-profile-Basic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.73347-06:00</t>
+    <t>2026-02-21T13:36:54.1326011-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Basic</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Basic|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -599,7 +599,7 @@
     <t>created</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Basic.created}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Basic.created|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -607,7 +607,7 @@
   </si>
   <si>
     <t>Note that the source element matches Basic element path ``, but the definitions are not compatible (source: `dateTime`:0..1 -&gt; basic: `date`:0..1).
-Element `Basic.created` has is mapped to FHIR R4 element `Basic.created`, but has no comparisons.</t>
+Element `Basic.created` is mapped to FHIR R4 element `Basic.created` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
